--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Hc-C5ar1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Hc-C5ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>C5ar1</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.124651574883628</v>
+        <v>0.1527673333333333</v>
       </c>
       <c r="H2">
-        <v>0.124651574883628</v>
+        <v>0.458302</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>40.7597924634021</v>
+        <v>0.169425</v>
       </c>
       <c r="N2">
-        <v>40.7597924634021</v>
+        <v>0.508275</v>
       </c>
       <c r="O2">
-        <v>0.137061968714831</v>
+        <v>0.0005062042177611658</v>
       </c>
       <c r="P2">
-        <v>0.137061968714831</v>
+        <v>0.0005062042177611658</v>
       </c>
       <c r="Q2">
-        <v>5.080772322492903</v>
+        <v>0.02588260545000001</v>
       </c>
       <c r="R2">
-        <v>5.080772322492903</v>
+        <v>0.23294344905</v>
       </c>
       <c r="S2">
-        <v>0.137061968714831</v>
+        <v>0.0005062042177611658</v>
       </c>
       <c r="T2">
-        <v>0.137061968714831</v>
+        <v>0.0005062042177611658</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.124651574883628</v>
+        <v>0.1527673333333333</v>
       </c>
       <c r="H3">
-        <v>0.124651574883628</v>
+        <v>0.458302</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +611,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.2211258261467</v>
+        <v>69.07203766666666</v>
       </c>
       <c r="N3">
-        <v>31.2211258261467</v>
+        <v>207.216113</v>
       </c>
       <c r="O3">
-        <v>0.1049865250189242</v>
+        <v>0.2063718860630059</v>
       </c>
       <c r="P3">
-        <v>0.1049865250189242</v>
+        <v>0.2063718860630059</v>
       </c>
       <c r="Q3">
-        <v>3.891762503869098</v>
+        <v>10.55195100223622</v>
       </c>
       <c r="R3">
-        <v>3.891762503869098</v>
+        <v>94.967559020126</v>
       </c>
       <c r="S3">
-        <v>0.1049865250189242</v>
+        <v>0.2063718860630059</v>
       </c>
       <c r="T3">
-        <v>0.1049865250189242</v>
+        <v>0.2063718860630059</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,55 +652,117 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.1527673333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.458302</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>31.266034</v>
+      </c>
+      <c r="N4">
+        <v>93.798102</v>
+      </c>
+      <c r="O4">
+        <v>0.0934159556350244</v>
+      </c>
+      <c r="P4">
+        <v>0.09341595563502442</v>
+      </c>
+      <c r="Q4">
+        <v>4.776428638089333</v>
+      </c>
+      <c r="R4">
+        <v>42.987857742804</v>
+      </c>
+      <c r="S4">
+        <v>0.0934159556350244</v>
+      </c>
+      <c r="T4">
+        <v>0.09341595563502442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.124651574883628</v>
-      </c>
-      <c r="H4">
-        <v>0.124651574883628</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>225.401301195466</v>
-      </c>
-      <c r="N4">
-        <v>225.401301195466</v>
-      </c>
-      <c r="O4">
-        <v>0.7579515062662449</v>
-      </c>
-      <c r="P4">
-        <v>0.7579515062662449</v>
-      </c>
-      <c r="Q4">
-        <v>28.09662717483382</v>
-      </c>
-      <c r="R4">
-        <v>28.09662717483382</v>
-      </c>
-      <c r="S4">
-        <v>0.7579515062662449</v>
-      </c>
-      <c r="T4">
-        <v>0.7579515062662449</v>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.1527673333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.458302</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>234.189438</v>
+      </c>
+      <c r="N5">
+        <v>702.5683140000001</v>
+      </c>
+      <c r="O5">
+        <v>0.6997059540842084</v>
+      </c>
+      <c r="P5">
+        <v>0.6997059540842085</v>
+      </c>
+      <c r="Q5">
+        <v>35.776495938092</v>
+      </c>
+      <c r="R5">
+        <v>321.988463442828</v>
+      </c>
+      <c r="S5">
+        <v>0.6997059540842084</v>
+      </c>
+      <c r="T5">
+        <v>0.6997059540842085</v>
       </c>
     </row>
   </sheetData>
